--- a/simulations/cleaned_inclusion_exclusion/Wolters_2018 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Wolters_2018 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>424</v>
       </c>
       <c r="C3">
-        <v>1836</v>
+        <v>171</v>
       </c>
       <c r="D3">
-        <v>1836</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,10 +444,10 @@
         <v>751</v>
       </c>
       <c r="C5">
-        <v>2485</v>
+        <v>924</v>
       </c>
       <c r="D5">
-        <v>2485</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -466,10 +466,10 @@
         <v>981</v>
       </c>
       <c r="C7">
-        <v>1742</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>1742</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>1061</v>
       </c>
       <c r="C9">
-        <v>1819</v>
+        <v>166</v>
       </c>
       <c r="D9">
-        <v>1819</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,10 +510,10 @@
         <v>1098</v>
       </c>
       <c r="C11">
-        <v>1845</v>
+        <v>193</v>
       </c>
       <c r="D11">
-        <v>1845</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -532,10 +532,10 @@
         <v>1144</v>
       </c>
       <c r="C13">
-        <v>1749</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>1749</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -554,10 +554,10 @@
         <v>1169</v>
       </c>
       <c r="C15">
-        <v>1921</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>1921</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -576,10 +576,10 @@
         <v>1779</v>
       </c>
       <c r="C17">
-        <v>1748</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>1748</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -598,10 +598,10 @@
         <v>1804</v>
       </c>
       <c r="C19">
-        <v>1735</v>
+        <v>135</v>
       </c>
       <c r="D19">
-        <v>1735</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -620,10 +620,10 @@
         <v>2009</v>
       </c>
       <c r="C21">
-        <v>1753</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>1753</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -642,10 +642,10 @@
         <v>2470</v>
       </c>
       <c r="C23">
-        <v>1726</v>
+        <v>476</v>
       </c>
       <c r="D23">
-        <v>1726</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -653,10 +653,10 @@
         <v>2776</v>
       </c>
       <c r="C24">
-        <v>2090</v>
+        <v>324</v>
       </c>
       <c r="D24">
-        <v>2090</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -675,10 +675,10 @@
         <v>2784</v>
       </c>
       <c r="C26">
-        <v>1931</v>
+        <v>47</v>
       </c>
       <c r="D26">
-        <v>1931</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -697,10 +697,10 @@
         <v>3297</v>
       </c>
       <c r="C28">
-        <v>2125</v>
+        <v>334</v>
       </c>
       <c r="D28">
-        <v>2125</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -719,10 +719,10 @@
         <v>3328</v>
       </c>
       <c r="C30">
-        <v>1855</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>1855</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -741,10 +741,10 @@
         <v>3332</v>
       </c>
       <c r="C32">
-        <v>1760</v>
+        <v>51</v>
       </c>
       <c r="D32">
-        <v>1760</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -763,10 +763,10 @@
         <v>3937</v>
       </c>
       <c r="C34">
-        <v>1754</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>1754</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -785,10 +785,10 @@
         <v>4074</v>
       </c>
       <c r="C36">
-        <v>1928</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>1928</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -807,10 +807,10 @@
         <v>4262</v>
       </c>
       <c r="C38">
-        <v>1734</v>
+        <v>134</v>
       </c>
       <c r="D38">
-        <v>1734</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -821,7 +821,7 @@
         <v>153.6666666666667</v>
       </c>
       <c r="C39">
-        <v>1870.315789473684</v>
+        <v>163.6315789473684</v>
       </c>
     </row>
   </sheetData>
